--- a/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/05_项目日报/个人日报——孙岩.xlsx
+++ b/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/05_项目日报/个人日报——孙岩.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="个人日报7.4-7.8" sheetId="2" r:id="rId2"/>
+    <sheet name="个人日报7.11-7.15" sheetId="3" r:id="rId3"/>
+    <sheet name="个人日报7.18-7.22" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>更改履历</t>
   </si>
@@ -159,6 +161,54 @@
   </si>
   <si>
     <t>明日工作计划</t>
+  </si>
+  <si>
+    <t>Android UI基础</t>
+  </si>
+  <si>
+    <t>listview</t>
+  </si>
+  <si>
+    <t>listview及安卓网络</t>
+  </si>
+  <si>
+    <t>熟悉安卓</t>
+  </si>
+  <si>
+    <t>安桌基础及界面</t>
+  </si>
+  <si>
+    <t>详细设计</t>
+  </si>
+  <si>
+    <t>站点查询编码</t>
+  </si>
+  <si>
+    <t>需求规约</t>
+  </si>
+  <si>
+    <t>跟上组内进度</t>
+  </si>
+  <si>
+    <t>项目分工及编码</t>
+  </si>
+  <si>
+    <t>站点查询</t>
+  </si>
+  <si>
+    <t>代码合并</t>
+  </si>
+  <si>
+    <t>功能完善</t>
+  </si>
+  <si>
+    <t>界面优化</t>
+  </si>
+  <si>
+    <t>评审</t>
+  </si>
+  <si>
+    <t>编码</t>
   </si>
 </sst>
 </file>
@@ -166,13 +216,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +264,58 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Frutiger LT 55 Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,9 +327,91 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,81 +426,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -324,14 +433,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -339,28 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Helv"/>
       <charset val="134"/>
@@ -387,25 +466,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,138 +622,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,12 +641,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,19 +678,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -632,6 +698,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -683,35 +762,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,17 +801,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,8 +824,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,157 +864,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,40 +1032,97 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -992,31 +1131,37 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1348,79 +1493,79 @@
   <sheetData>
     <row r="1" ht="3.75" customHeight="1"/>
     <row r="2" ht="23.25" customHeight="1" spans="2:8">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="31">
+      <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="50">
         <v>1.1</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="33" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="31">
+      <c r="B5" s="43">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="31">
+      <c r="B6" s="43">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1442,8 +1587,8 @@
   <sheetPr/>
   <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1453,343 +1598,387 @@
   </cols>
   <sheetData>
     <row r="2" ht="27" spans="2:9">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10">
+      <c r="D9" s="29"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="30">
         <v>1</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10">
+      <c r="D10" s="31"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16">
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36">
         <v>1</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="36">
         <v>1</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="36">
         <v>0.3</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="44">
         <v>1</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="15" t="s">
+      <c r="C17" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48">
+        <v>1</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="52"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="15" t="s">
+      <c r="C18" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48">
+        <v>1</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="52"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="15" t="s">
+      <c r="C19" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48">
+        <v>1</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="52"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="C20" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48">
+        <v>1</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="29">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:K3"/>
@@ -1815,8 +2004,736 @@
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" ht="27" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="24" spans="1:8">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>6</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="12">
+        <v>8</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" ht="24" spans="1:8">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" ht="27" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="24" spans="1:8">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" ht="24" spans="1:8">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>